--- a/umbrella360/deposito/São Francisco Resgate_unidades.xlsx
+++ b/umbrella360/deposito/São Francisco Resgate_unidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,37 +456,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>engine_model</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>engine_power</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>engine_displacement</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>primary_fuel_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>color</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>engine_model</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>engine_power</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>engine_displacement</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>primary_fuel_type</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755183441, 'modified_time': 1755183441}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755183441, 'modified_time': 1755183441}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755183441, 'modified_time': 1755183441}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755183441, 'modified_time': 1755183441}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755183441, 'modified_time': 1755183441}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755183441, 'modified_time': 1755183441}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755183441, 'modified_time': 1755183441}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755183441, 'modified_time': 1755183441}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755183441, 'modified_time': 1755183441}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1755183441, 'modified_time': 1755183441}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755183441, 'modified_time': 1755183441}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755183441, 'modified_time': 1755183441}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755183441, 'modified_time': 1755183441}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755183441, 'modified_time': 1755183441}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755183441, 'modified_time': 1755183441}}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -526,49 +526,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fiat 1.0</t>
+          <t>71cv</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>999cm³</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Flex</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -582,7 +562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753363813, 'modified_time': 1753363813}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753363813, 'modified_time': 1753363813}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753363813, 'modified_time': 1753363813}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753363813, 'modified_time': 1753363813}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753363813, 'modified_time': 1753363813}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753363813, 'modified_time': 1753363813}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753363813, 'modified_time': 1753363813}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753363813, 'modified_time': 1753363813}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753363813, 'modified_time': 1753363813}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1753363813, 'modified_time': 1753363813}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753363813, 'modified_time': 1753363813}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753363813, 'modified_time': 1753363813}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753363813, 'modified_time': 1753363813}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753363813, 'modified_time': 1753363813}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753363813, 'modified_time': 1753363813}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753363813, 'modified_time': 1753363813}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753363813, 'modified_time': 1753363813}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753363813, 'modified_time': 1753363813}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753363813, 'modified_time': 1753363813}}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -592,63 +572,59 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>401941806</v>
+        <v>401990799</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SFRESGATE_9673</t>
+          <t>SFRESGATE_6097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755097361, 'modified_time': 1755097361}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755097361, 'modified_time': 1755097361}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755097361, 'modified_time': 1755097361}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755097361, 'modified_time': 1755097361}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755097361, 'modified_time': 1755097361}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755097361, 'modified_time': 1755097361}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755097361, 'modified_time': 1755097361}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755097361, 'modified_time': 1755097361}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755097361, 'modified_time': 1755097361}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1755097361, 'modified_time': 1755097361}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1758541329, 'modified_time': 1758541329}, 'engine_model': {'value': '71cv', 'field_id': 2, 'created_time': 1758541329, 'modified_time': 1758541329}, 'engine_power': {'value': '52,2', 'field_id': 3, 'created_time': 1758541329, 'modified_time': 1758541329}, 'engine_displacement': {'value': '999cm³', 'field_id': 4, 'created_time': 1758541329, 'modified_time': 1758541329}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 5, 'created_time': 1758541329, 'modified_time': 1758541329}}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,63 +634,43 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fiat 1.0</t>
+          <t>71cv</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>999cm³</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Flex</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>401916024</v>
+        <v>401990804</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SFRESGATE_BPQ3E25</t>
+          <t>SFRESGATE_6907</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753298084, 'modified_time': 1753298084}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753298084, 'modified_time': 1753298084}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753298084, 'modified_time': 1753298084}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753298084, 'modified_time': 1753298084}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753298084, 'modified_time': 1753298084}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753298084, 'modified_time': 1753298084}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753298084, 'modified_time': 1753298084}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753298084, 'modified_time': 1753298084}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753298084, 'modified_time': 1753298084}, 'registration_plate': {'value': 'BPQ3E25', 'field_id': 10, 'created_time': 1753298084, 'modified_time': 1754321606}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1758542730, 'modified_time': 1758542730}, 'engine_model': {'value': '71cv', 'field_id': 2, 'created_time': 1758542730, 'modified_time': 1758542730}, 'engine_power': {'value': '52,2', 'field_id': 3, 'created_time': 1758542730, 'modified_time': 1758542730}, 'engine_displacement': {'value': '999cm³', 'field_id': 4, 'created_time': 1758542731, 'modified_time': 1758542731}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 5, 'created_time': 1758542731, 'modified_time': 1758542731}}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -724,63 +680,43 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fiat 1.0</t>
+          <t>71cv</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>999cm³</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>Flex</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>BPQ3E25</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>401915533</v>
+        <v>401941806</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SFRESGATE_DRI8I74</t>
+          <t>SFRESGATE_9673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753283745, 'modified_time': 1753283745}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753283745, 'modified_time': 1753283745}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753283745, 'modified_time': 1753283745}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753283745, 'modified_time': 1753283745}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753283745, 'modified_time': 1753283745}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753283745, 'modified_time': 1753283745}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753283745, 'modified_time': 1753283745}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753283745, 'modified_time': 1753283745}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753283745, 'modified_time': 1753283745}, 'registration_plate': {'value': 'DRI8I74', 'field_id': 10, 'created_time': 1753283745, 'modified_time': 1754321394}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755097361, 'modified_time': 1755097361}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755097361, 'modified_time': 1755097361}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755097361, 'modified_time': 1755097361}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755097361, 'modified_time': 1755097361}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755097361, 'modified_time': 1755097361}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755097361, 'modified_time': 1755097361}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755097361, 'modified_time': 1755097361}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755097361, 'modified_time': 1755097361}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755097361, 'modified_time': 1755097361}}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -790,97 +726,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DRI8I74</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>401906339</v>
+        <v>401916024</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SFRESGATE_DRQ5I21</t>
+          <t>SFRESGATE_BPQ3E25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752605271, 'modified_time': 1752605271}, 'registration_plate': {'value': 'DRQ5I21', 'field_id': 2, 'created_time': 1754320948, 'modified_time': 1754320948}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753298084, 'modified_time': 1753298084}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753298084, 'modified_time': 1753298084}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753298084, 'modified_time': 1753298084}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753298084, 'modified_time': 1753298084}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753298084, 'modified_time': 1753298084}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753298084, 'modified_time': 1753298084}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753298084, 'modified_time': 1753298084}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753298084, 'modified_time': 1753298084}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753298084, 'modified_time': 1753298084}, 'registration_plate': {'value': 'BPQ3E25', 'field_id': 10, 'created_time': 1753298084, 'modified_time': 1754321606}}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DRQ5I21</t>
+          <t>BPQ3E25</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>401941781</v>
+        <v>401915533</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SFRESGATE_EWN7294</t>
+          <t>SFRESGATE_DRI8I74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755096431, 'modified_time': 1755096431}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755096431, 'modified_time': 1755096431}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755096431, 'modified_time': 1755096431}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755096431, 'modified_time': 1755096431}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755096431, 'modified_time': 1755096431}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755096431, 'modified_time': 1755096431}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755096431, 'modified_time': 1755096431}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755096431, 'modified_time': 1755096431}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755096431, 'modified_time': 1755096431}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1755096431, 'modified_time': 1755096431}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753283745, 'modified_time': 1753283745}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753283745, 'modified_time': 1753283745}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753283745, 'modified_time': 1753283745}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753283745, 'modified_time': 1753283745}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753283745, 'modified_time': 1753283745}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753283745, 'modified_time': 1753283745}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753283745, 'modified_time': 1753283745}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753283745, 'modified_time': 1753283745}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753283745, 'modified_time': 1753283745}, 'registration_plate': {'value': 'DRI8I74', 'field_id': 10, 'created_time': 1753283745, 'modified_time': 1754321394}}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -890,39 +854,39 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>2023</t>
@@ -930,23 +894,23 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>DRI8I74</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>401880997</v>
+        <v>401906339</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SFRESGATE_SIV2J35</t>
+          <t>SFRESGATE_DRQ5I21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750866122, 'modified_time': 1750866122}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752605271, 'modified_time': 1752605271}, 'registration_plate': {'value': 'DRQ5I21', 'field_id': 2, 'created_time': 1754320948, 'modified_time': 1754320948}}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -962,117 +926,117 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DRQ5I21</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>401879378</v>
+        <v>401941781</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G54</t>
+          <t>SFRESGATE_EWN7294</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750775624, 'modified_time': 1750775624}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755096431, 'modified_time': 1755096431}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755096431, 'modified_time': 1755096431}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755096431, 'modified_time': 1755096431}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755096431, 'modified_time': 1755096431}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755096431, 'modified_time': 1755096431}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755096431, 'modified_time': 1755096431}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755096431, 'modified_time': 1755096431}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755096431, 'modified_time': 1755096431}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755096431, 'modified_time': 1755096431}}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>401916817</v>
+        <v>401880997</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G63</t>
+          <t>SFRESGATE_SIV2J35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753358309, 'modified_time': 1753358309}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753358309, 'modified_time': 1753358309}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753358309, 'modified_time': 1753358309}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753358309, 'modified_time': 1753358309}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753358309, 'modified_time': 1753358309}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753358309, 'modified_time': 1753358309}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753358309, 'modified_time': 1753358309}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753358309, 'modified_time': 1753358309}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753358309, 'modified_time': 1753358309}, 'registration_plate': {'value': 'SJI6G63', 'field_id': 10, 'created_time': 1753358309, 'modified_time': 1754321676}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750866122, 'modified_time': 1750866122}}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>SJI6G63</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>401879179</v>
+        <v>401879378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G64</t>
+          <t>SFRESGATE_SJI6G54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750771271, 'modified_time': 1750771271}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750775624, 'modified_time': 1750775624}}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1093,46 +1057,82 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>401889700</v>
+        <v>401916817</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G68</t>
+          <t>SFRESGATE_SJI6G63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1751478936, 'modified_time': 1751478936}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753358309, 'modified_time': 1753358309}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753358309, 'modified_time': 1753358309}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753358309, 'modified_time': 1753358309}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753358309, 'modified_time': 1753358309}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753358309, 'modified_time': 1753358309}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753358309, 'modified_time': 1753358309}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753358309, 'modified_time': 1753358309}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753358309, 'modified_time': 1753358309}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753358309, 'modified_time': 1753358309}, 'registration_plate': {'value': 'SJI6G63', 'field_id': 10, 'created_time': 1753358309, 'modified_time': 1754321676}}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SJI6G63</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>401880902</v>
+        <v>401879179</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G72</t>
+          <t>SFRESGATE_SJI6G64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750863778, 'modified_time': 1750863778}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750771271, 'modified_time': 1750771271}}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1153,152 +1153,76 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>401889343</v>
+        <v>401889700</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G74</t>
+          <t>SFRESGATE_SJI6G68</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1751469465, 'modified_time': 1752762370}, 'registration_plate': {'value': 'SYF6G05', 'field_id': 2, 'created_time': 1752762370, 'modified_time': 1752762370}, 'brand': {'value': 'Fiat 1.0', 'field_id': 3, 'created_time': 1752762370, 'modified_time': 1752778227}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1752762370, 'modified_time': 1752762370}, 'model': {'value': 'Cronos', 'field_id': 5, 'created_time': 1752762770, 'modified_time': 1752762770}, 'year': {'value': '2023', 'field_id': 6, 'created_time': 1752762770, 'modified_time': 1752762770}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1752778227, 'modified_time': 1752778227}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1752778227, 'modified_time': 1752778227}, 'engine_model': {'value': '71cv', 'field_id': 9, 'created_time': 1752778227, 'modified_time': 1752778227}, 'engine_power': {'value': '52,2', 'field_id': 10, 'created_time': 1752778227, 'modified_time': 1752778227}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1751478936, 'modified_time': 1751478936}}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>SYF6G05</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>401927850</v>
+        <v>401880902</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G75</t>
+          <t>SFRESGATE_SJI6G72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754072538, 'modified_time': 1754072538}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754072538, 'modified_time': 1754072538}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754072538, 'modified_time': 1754072538}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754072538, 'modified_time': 1754072538}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754072538, 'modified_time': 1754072538}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754072538, 'modified_time': 1754072538}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754072538, 'modified_time': 1754072538}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754072538, 'modified_time': 1754072538}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754072538, 'modified_time': 1754072538}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1754072538, 'modified_time': 1754072538}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754072538, 'modified_time': 1754072538}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750863778, 'modified_time': 1750863778}}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>401928009</v>
+        <v>401889343</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G77</t>
+          <t>SFRESGATE_SJI6G74</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754076128, 'modified_time': 1754076128}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754076128, 'modified_time': 1754076128}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754076128, 'modified_time': 1754076128}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754076128, 'modified_time': 1754076128}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754076128, 'modified_time': 1754076128}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754076128, 'modified_time': 1754076128}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754076128, 'modified_time': 1754076128}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754076128, 'modified_time': 1754076128}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754076128, 'modified_time': 1754076128}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1754076128, 'modified_time': 1754076128}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754076128, 'modified_time': 1754076128}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1751469465, 'modified_time': 1752762370}, 'registration_plate': {'value': 'SJI6G74', 'field_id': 2, 'created_time': 1752762370, 'modified_time': 1758138088}, 'brand': {'value': 'Fiat 1.0', 'field_id': 3, 'created_time': 1752762370, 'modified_time': 1752778227}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1752762370, 'modified_time': 1752762370}, 'model': {'value': 'Cronos', 'field_id': 5, 'created_time': 1752762770, 'modified_time': 1752762770}, 'year': {'value': '2023', 'field_id': 6, 'created_time': 1752762770, 'modified_time': 1752762770}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1752778227, 'modified_time': 1752778227}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1752778227, 'modified_time': 1752778227}, 'engine_model': {'value': '71cv', 'field_id': 9, 'created_time': 1752778227, 'modified_time': 1752778227}, 'engine_power': {'value': '52,2', 'field_id': 10, 'created_time': 1752778227, 'modified_time': 1752778227}}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1308,39 +1232,39 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1348,27 +1272,23 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>SJI6G74</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>401916826</v>
+        <v>401927850</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G78</t>
+          <t>SFRESGATE_SJI6G75</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753360085, 'modified_time': 1753360085}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753360085, 'modified_time': 1753360085}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753360085, 'modified_time': 1753360085}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753360085, 'modified_time': 1753360085}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753360085, 'modified_time': 1753360085}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753360085, 'modified_time': 1753360085}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753360085, 'modified_time': 1753360085}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753360085, 'modified_time': 1753360085}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753360085, 'modified_time': 1753360085}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754072538, 'modified_time': 1754072538}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754072538, 'modified_time': 1754072538}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754072538, 'modified_time': 1754072538}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754072538, 'modified_time': 1754072538}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754072538, 'modified_time': 1754072538}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754072538, 'modified_time': 1754072538}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754072538, 'modified_time': 1754072538}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754072538, 'modified_time': 1754072538}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754072538, 'modified_time': 1754072538}, 'registration_plate': {'value': 'SJI6G75', 'field_id': 10, 'created_time': 1754072538, 'modified_time': 1758138102}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754072538, 'modified_time': 1754072538}}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1378,59 +1298,67 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SJI6G75</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>401927802</v>
+        <v>401928009</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G79</t>
+          <t>SFRESGATE_SJI6G77</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754071688, 'modified_time': 1754071688}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754071688, 'modified_time': 1754071688}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754071688, 'modified_time': 1754071688}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754071688, 'modified_time': 1754071688}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754071688, 'modified_time': 1754071688}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754071688, 'modified_time': 1754071688}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754071688, 'modified_time': 1754071688}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754071688, 'modified_time': 1754071688}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754071688, 'modified_time': 1754071688}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1754071688, 'modified_time': 1754071688}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754071688, 'modified_time': 1754071688}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754076128, 'modified_time': 1754076128}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754076128, 'modified_time': 1754076128}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754076128, 'modified_time': 1754076128}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754076128, 'modified_time': 1754076128}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754076128, 'modified_time': 1754076128}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754076128, 'modified_time': 1754076128}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754076128, 'modified_time': 1754076128}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754076128, 'modified_time': 1754076128}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754076128, 'modified_time': 1754076128}, 'registration_plate': {'value': 'SJI6G77', 'field_id': 10, 'created_time': 1754076128, 'modified_time': 1758138145}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754076128, 'modified_time': 1754076128}}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1440,39 +1368,39 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1480,7 +1408,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G77</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1491,16 +1419,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>401879415</v>
+        <v>401916826</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G82</t>
+          <t>SFRESGATE_SJI6G78</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1750776767, 'modified_time': 1752778695}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1752778695, 'modified_time': 1752778695}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1752778695, 'modified_time': 1752778695}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1752778695, 'modified_time': 1752778695}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1752778695, 'modified_time': 1752778695}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1752778695, 'modified_time': 1752778695}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1752778695, 'modified_time': 1752778695}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1752778695, 'modified_time': 1752778695}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1752778695, 'modified_time': 1752778695}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1752778695, 'modified_time': 1752778695}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1753705838, 'modified_time': 1753705838}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753360085, 'modified_time': 1753360085}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753360085, 'modified_time': 1753360085}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753360085, 'modified_time': 1753360085}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753360085, 'modified_time': 1753360085}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753360085, 'modified_time': 1753360085}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753360085, 'modified_time': 1753360085}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753360085, 'modified_time': 1753360085}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753360085, 'modified_time': 1753360085}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753360085, 'modified_time': 1753360085}}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1510,67 +1438,59 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>401928011</v>
+        <v>401927802</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G85</t>
+          <t>SFRESGATE_SJI6G79</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754076152, 'modified_time': 1754076152}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754076152, 'modified_time': 1754076152}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754076152, 'modified_time': 1754076152}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754076152, 'modified_time': 1754076152}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754076152, 'modified_time': 1754076152}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754076152, 'modified_time': 1754076152}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754076152, 'modified_time': 1754076152}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754076152, 'modified_time': 1754076152}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754076152, 'modified_time': 1754076152}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1754076152, 'modified_time': 1754076152}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754076152, 'modified_time': 1754076152}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754071688, 'modified_time': 1754071688}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754071688, 'modified_time': 1754071688}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754071688, 'modified_time': 1754071688}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754071688, 'modified_time': 1754071688}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754071688, 'modified_time': 1754071688}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754071688, 'modified_time': 1754071688}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754071688, 'modified_time': 1754071688}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754071688, 'modified_time': 1754071688}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754071688, 'modified_time': 1754071688}, 'registration_plate': {'value': 'SJI6G79', 'field_id': 10, 'created_time': 1754071688, 'modified_time': 1758138174}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754071688, 'modified_time': 1754071688}}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1580,39 +1500,39 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1620,7 +1540,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G79</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1631,16 +1551,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>401915520</v>
+        <v>401879415</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G86</t>
+          <t>SFRESGATE_SJI6G82</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753282887, 'modified_time': 1753282887}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753282887, 'modified_time': 1753282887}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753282887, 'modified_time': 1753282887}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753282887, 'modified_time': 1753282887}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753282887, 'modified_time': 1753282887}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753282887, 'modified_time': 1753282887}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753282887, 'modified_time': 1753282887}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753282887, 'modified_time': 1753282887}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753282887, 'modified_time': 1753282887}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1753282887, 'modified_time': 1753282887}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1750776767, 'modified_time': 1752778695}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1752778695, 'modified_time': 1752778695}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1752778695, 'modified_time': 1752778695}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1752778695, 'modified_time': 1752778695}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1752778695, 'modified_time': 1752778695}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1752778695, 'modified_time': 1752778695}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1752778695, 'modified_time': 1752778695}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1752778695, 'modified_time': 1752778695}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1752778695, 'modified_time': 1752778695}, 'registration_plate': {'value': 'SJI6G82', 'field_id': 10, 'created_time': 1752778695, 'modified_time': 1758138189}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1753705838, 'modified_time': 1753705838}}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1650,39 +1570,39 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1690,23 +1610,27 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>SJI6G82</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>401927726</v>
+        <v>401928011</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G88</t>
+          <t>SFRESGATE_SJI6G85</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754069917, 'modified_time': 1754069917}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754069917, 'modified_time': 1754069917}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754069917, 'modified_time': 1754069917}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754069917, 'modified_time': 1754069917}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754069917, 'modified_time': 1754069917}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754069917, 'modified_time': 1754069917}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754069917, 'modified_time': 1754069917}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754069917, 'modified_time': 1754069917}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754069917, 'modified_time': 1754069917}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1754069917, 'modified_time': 1754069917}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754069917, 'modified_time': 1754069917}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754076152, 'modified_time': 1754076152}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754076152, 'modified_time': 1754076152}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754076152, 'modified_time': 1754076152}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754076152, 'modified_time': 1754076152}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754076152, 'modified_time': 1754076152}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754076152, 'modified_time': 1754076152}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754076152, 'modified_time': 1754076152}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754076152, 'modified_time': 1754076152}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754076152, 'modified_time': 1754076152}, 'registration_plate': {'value': 'SJI6G85', 'field_id': 10, 'created_time': 1754076152, 'modified_time': 1758138203}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754076152, 'modified_time': 1754076152}}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1716,39 +1640,39 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1756,7 +1680,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G85</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1767,50 +1691,82 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>401881369</v>
+        <v>401915520</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G89</t>
+          <t>SFRESGATE_SJI6G86</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750878786, 'modified_time': 1750878786}, 'registration_plate': {'value': 'SJI6G89', 'field_id': 2, 'created_time': 1754321234, 'modified_time': 1754321234}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753282887, 'modified_time': 1753282887}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753282887, 'modified_time': 1753282887}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753282887, 'modified_time': 1753282887}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753282887, 'modified_time': 1753282887}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753282887, 'modified_time': 1753282887}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753282887, 'modified_time': 1753282887}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753282887, 'modified_time': 1753282887}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753282887, 'modified_time': 1753282887}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753282887, 'modified_time': 1753282887}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1753282887, 'modified_time': 1753282887}}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>SJI6G89</t>
+          <t>SJI6G86</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>401915486</v>
+        <v>401927726</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G90</t>
+          <t>SFRESGATE_SJI6G88</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753281669, 'modified_time': 1753281669}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753281669, 'modified_time': 1753281669}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753281669, 'modified_time': 1753281669}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753281669, 'modified_time': 1753281669}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753281669, 'modified_time': 1753281669}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753281669, 'modified_time': 1753281669}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753281669, 'modified_time': 1753281669}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753281669, 'modified_time': 1753281669}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753281669, 'modified_time': 1753281669}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1753281669, 'modified_time': 1753281669}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754069917, 'modified_time': 1754069917}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754069917, 'modified_time': 1754069917}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754069917, 'modified_time': 1754069917}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754069917, 'modified_time': 1754069917}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754069917, 'modified_time': 1754069917}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754069917, 'modified_time': 1754069917}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754069917, 'modified_time': 1754069917}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754069917, 'modified_time': 1754069917}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754069917, 'modified_time': 1754069917}, 'registration_plate': {'value': 'SJI6G88', 'field_id': 10, 'created_time': 1754069917, 'modified_time': 1758138224}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754069917, 'modified_time': 1754069917}}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1820,39 +1776,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1860,157 +1816,189 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>SJI6G88</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>401929767</v>
+        <v>401881369</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G91</t>
+          <t>SFRESGATE_SJI6G89</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754323630, 'modified_time': 1754323630}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754323630, 'modified_time': 1754323630}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754323630, 'modified_time': 1754323630}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754323630, 'modified_time': 1754323630}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754323630, 'modified_time': 1754323630}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754323630, 'modified_time': 1754323630}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754323630, 'modified_time': 1754323630}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754323630, 'modified_time': 1754323630}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754323630, 'modified_time': 1754323630}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1754323630, 'modified_time': 1754323630}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754323630, 'modified_time': 1754323630}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750878786, 'modified_time': 1750878786}, 'registration_plate': {'value': 'SJI6G89', 'field_id': 2, 'created_time': 1754321234, 'modified_time': 1754321234}}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>SJI6G89</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>401906383</v>
+        <v>401915486</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G92</t>
+          <t>SFRESGATE_SJI6G90</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752607352, 'modified_time': 1752607352}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753281669, 'modified_time': 1753281669}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753281669, 'modified_time': 1753281669}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753281669, 'modified_time': 1753281669}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753281669, 'modified_time': 1753281669}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753281669, 'modified_time': 1753281669}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753281669, 'modified_time': 1753281669}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753281669, 'modified_time': 1753281669}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753281669, 'modified_time': 1753281669}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753281669, 'modified_time': 1753281669}}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>401881418</v>
+        <v>401929767</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G96</t>
+          <t>SFRESGATE_SJI6G91</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750880510, 'modified_time': 1750880510}, 'registration_plate': {'value': 'SJI6G96', 'field_id': 2, 'created_time': 1754321287, 'modified_time': 1754321287}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1754323630, 'modified_time': 1754323630}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1754323630, 'modified_time': 1754323630}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1754323630, 'modified_time': 1754323630}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1754323630, 'modified_time': 1754323630}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1754323630, 'modified_time': 1754323630}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1754323630, 'modified_time': 1754323630}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1754323630, 'modified_time': 1754323630}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1754323630, 'modified_time': 1754323630}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1754323630, 'modified_time': 1754323630}, 'co2_emission': {'value': '98', 'field_id': 11, 'created_time': 1754323630, 'modified_time': 1754323630}}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>SJI6G96</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>401916092</v>
+        <v>401906383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G97</t>
+          <t>SFRESGATE_SJI6G92</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1753299842, 'modified_time': 1753299842}, 'registration_plate': {'value': 'SJI6G97', 'field_id': 2, 'created_time': 1754320665, 'modified_time': 1754320665}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752607352, 'modified_time': 1752607352}}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2026,25 +2014,21 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>SJI6G97</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>401897329</v>
+        <v>401881418</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G99</t>
+          <t>SFRESGATE_SJI6G96</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1751982938, 'modified_time': 1751982938}, 'registration_plate': {'value': 'SJI6G99', 'field_id': 2, 'created_time': 1754321347, 'modified_time': 1754321347}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750880510, 'modified_time': 1750880510}, 'registration_plate': {'value': 'SJI6G96', 'field_id': 2, 'created_time': 1754321287, 'modified_time': 1754321287}}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2062,23 +2046,23 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>SJI6G99</t>
+          <t>SJI6G96</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>401907057</v>
+        <v>401916092</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E00</t>
+          <t>SFRESGATE_SJI6G97</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752668065, 'modified_time': 1752668065}, 'registration_plate': {'value': 'SYB8E00', 'field_id': 2, 'created_time': 1754321092, 'modified_time': 1754321092}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1753299842, 'modified_time': 1753299842}, 'registration_plate': {'value': 'SJI6G97', 'field_id': 2, 'created_time': 1754320665, 'modified_time': 1754320665}}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2096,89 +2080,57 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>SYB8E00</t>
+          <t>SJI6G97</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>401916068</v>
+        <v>401897329</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E10</t>
+          <t>SFRESGATE_SJI6G99</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753299258, 'modified_time': 1753299258}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753299258, 'modified_time': 1753299258}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753299258, 'modified_time': 1753299258}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753299258, 'modified_time': 1753299258}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753299258, 'modified_time': 1753299258}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753299258, 'modified_time': 1753299258}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753299258, 'modified_time': 1753299258}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753299258, 'modified_time': 1753299258}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753299258, 'modified_time': 1753299258}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1753299258, 'modified_time': 1753299258}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1751982938, 'modified_time': 1751982938}, 'registration_plate': {'value': 'SJI6G99', 'field_id': 2, 'created_time': 1754321347, 'modified_time': 1754321347}}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G99</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>401879325</v>
+        <v>401907057</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E11</t>
+          <t>SFRESGATE_SYB8E00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750773829, 'modified_time': 1750773829}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752668065, 'modified_time': 1752668065}, 'registration_plate': {'value': 'SYB8E00', 'field_id': 2, 'created_time': 1754321092, 'modified_time': 1754321092}}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2194,121 +2146,117 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>SYB8E00</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>401907137</v>
+        <v>401916068</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E23</t>
+          <t>SFRESGATE_SYB8E10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752673970, 'modified_time': 1752673970}, 'registration_plate': {'value': 'SYB8E23', 'field_id': 2, 'created_time': 1754321151, 'modified_time': 1754321151}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753299258, 'modified_time': 1753299258}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753299258, 'modified_time': 1753299258}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753299258, 'modified_time': 1753299258}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753299258, 'modified_time': 1753299258}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753299258, 'modified_time': 1753299258}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753299258, 'modified_time': 1753299258}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753299258, 'modified_time': 1753299258}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753299258, 'modified_time': 1753299258}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753299258, 'modified_time': 1753299258}}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>SYB8E23</t>
-        </is>
-      </c>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>401946422</v>
+        <v>401879325</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E28</t>
+          <t>SFRESGATE_SYB8E11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755516454, 'modified_time': 1755516454}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755516454, 'modified_time': 1755516454}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755516454, 'modified_time': 1755516454}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755516454, 'modified_time': 1755516454}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755516454, 'modified_time': 1755516454}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755516454, 'modified_time': 1755516454}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755516454, 'modified_time': 1755516454}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755516454, 'modified_time': 1755516454}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755516454, 'modified_time': 1755516454}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1755516454, 'modified_time': 1755516454}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750773829, 'modified_time': 1750773829}}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>401906350</v>
+        <v>401907137</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E24</t>
+          <t>SFRESGATE_SYB8E23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752605697, 'modified_time': 1752605697}, 'registration_plate': {'value': 'SYB8E24', 'field_id': 2, 'created_time': 1754320877, 'modified_time': 1754320877}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752673970, 'modified_time': 1752673970}, 'registration_plate': {'value': 'SYB8E23', 'field_id': 2, 'created_time': 1754321151, 'modified_time': 1754321151}}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2326,23 +2274,23 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>SYB8E24</t>
+          <t>SYB8E23</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>401941723</v>
+        <v>401946422</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E25</t>
+          <t>SFRESGATE_SYB8E28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755094762, 'modified_time': 1755094762}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755094762, 'modified_time': 1755094762}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755094762, 'modified_time': 1755094762}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755094762, 'modified_time': 1755094762}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755094762, 'modified_time': 1755094762}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755094762, 'modified_time': 1755094762}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755094762, 'modified_time': 1755094762}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755094762, 'modified_time': 1755094762}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755094762, 'modified_time': 1755094762}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1755094762, 'modified_time': 1755094762}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755516454, 'modified_time': 1755516454}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755516454, 'modified_time': 1755516454}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755516454, 'modified_time': 1755516454}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755516454, 'modified_time': 1755516454}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755516454, 'modified_time': 1755516454}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755516454, 'modified_time': 1755516454}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755516454, 'modified_time': 1755516454}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755516454, 'modified_time': 1755516454}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755516454, 'modified_time': 1755516454}}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2352,146 +2300,234 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>401915500</v>
+        <v>401906350</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYF6G05</t>
+          <t>SFRESGATE_SYB8E24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753282241, 'modified_time': 1753282241}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753282241, 'modified_time': 1753282241}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753282241, 'modified_time': 1753282241}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753282241, 'modified_time': 1753282241}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753282241, 'modified_time': 1753282241}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753282241, 'modified_time': 1753282241}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753282241, 'modified_time': 1753282241}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753282241, 'modified_time': 1753282241}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753282241, 'modified_time': 1753282241}, 'registration_plate': {'value': 'SJI6G86', 'field_id': 10, 'created_time': 1753282241, 'modified_time': 1753282241}}</t>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1752605697, 'modified_time': 1752605697}, 'registration_plate': {'value': 'SYB8E24', 'field_id': 2, 'created_time': 1754320877, 'modified_time': 1754320877}}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SYB8E24</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>401880666</v>
+        <v>401941723</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYZ2F17</t>
+          <t>SFRESGATE_SYB8E25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750854283, 'modified_time': 1750854283}}</t>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1755094762, 'modified_time': 1755094762}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1755094762, 'modified_time': 1755094762}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1755094762, 'modified_time': 1755094762}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1755094762, 'modified_time': 1755094762}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1755094762, 'modified_time': 1755094762}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1755094762, 'modified_time': 1755094762}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1755094762, 'modified_time': 1755094762}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1755094762, 'modified_time': 1755094762}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1755094762, 'modified_time': 1755094762}}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>401915500</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SFRESGATE_SYF6G05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'vehicle_class': {'value': 'passenger_car', 'field_id': 1, 'created_time': 1753282241, 'modified_time': 1753282241}, 'brand': {'value': 'Fiat 1.0', 'field_id': 2, 'created_time': 1753282241, 'modified_time': 1753282241}, 'model': {'value': 'Cronos', 'field_id': 3, 'created_time': 1753282241, 'modified_time': 1753282241}, 'color': {'value': 'Branca', 'field_id': 4, 'created_time': 1753282241, 'modified_time': 1753282241}, 'engine_model': {'value': '71cv', 'field_id': 5, 'created_time': 1753282241, 'modified_time': 1753282241}, 'engine_power': {'value': '52,2', 'field_id': 6, 'created_time': 1753282241, 'modified_time': 1753282241}, 'engine_displacement': {'value': '999cm³', 'field_id': 7, 'created_time': 1753282241, 'modified_time': 1753282241}, 'primary_fuel_type': {'value': 'Flex', 'field_id': 8, 'created_time': 1753282241, 'modified_time': 1753282241}, 'year': {'value': '2023', 'field_id': 9, 'created_time': 1753282241, 'modified_time': 1753282241}}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>401880666</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SFRESGATE_SYZ2F17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'vehicle_class': {'value': 'empty_vehicle', 'field_id': 1, 'created_time': 1750854283, 'modified_time': 1750854283}}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
